--- a/medicine/Psychotrope/Gueuzerie_Tilquin/Gueuzerie_Tilquin.xlsx
+++ b/medicine/Psychotrope/Gueuzerie_Tilquin/Gueuzerie_Tilquin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Gueuzerie Tilquin est une entreprise  belge de coupage de gueuze située à Bierghes dans la commune de Rebecq en province du Brabant wallon. Elle a la particularité d'être la seule entreprise productrice de gueuze en Wallonie.
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La gueuzerie (en néerlandais : geuzestekerij) a été fondée en février 2009 par Pierre Tilquin, bio-ingénieur et porteur d’un doctorat en statistiques et génétique, et qui a suivi des cours en sciences du brassage à Louvain. Cet originaire de Namur a aussi travaillé pour les brasseries Huyghe à Melle, Drie Fonteinen à Beersel et Cantillon à Bruxelles. 
-Ce n'est pas une brasserie proprement dite car l'entreprise achète des moûts fraichement brassés chez cinq producteurs de la région du Pajottenland et de Bruxelles[1] : les brasseries Boon, Lindemans, Girardin, Cantillon et Timmermans. Ces moûts sont mis dans les 575 fûts de chêne de l'entreprise pour une durée d'1 an, 2 ans ou 3 ans puis assemblés pour une dernière refermentation de 6 mois en bouteille pour obtenir la Gueuze Tilquin à l'ancienne. 
+Ce n'est pas une brasserie proprement dite car l'entreprise achète des moûts fraichement brassés chez cinq producteurs de la région du Pajottenland et de Bruxelles : les brasseries Boon, Lindemans, Girardin, Cantillon et Timmermans. Ces moûts sont mis dans les 575 fûts de chêne de l'entreprise pour une durée d'1 an, 2 ans ou 3 ans puis assemblés pour une dernière refermentation de 6 mois en bouteille pour obtenir la Gueuze Tilquin à l'ancienne. 
 Les fûts employés sont soit des fûts de 400 litres soit des fûts de 600 litres (demi-muids). Tous les fûts sont des fûts de seconde main, ayant contenu du vin rouge.
 65-70% des 1440 hl de la production annuelle sont exportés dans divers pays, dont une partie importante aux États-Unis, en Suède, en Italie, en Angleterre, en Norvège, en Chine, etc. Depuis avril 2012, la Gueuzerie Tilquin est un des membres du Haut conseil pour lambiques artisanales (Horal).
 </t>
@@ -546,7 +560,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Gueuzerie Tilquin se trouve à Bierghes dans la vallée de la Senne où l'on trouve les levures sauvages propres à la fermentation spontanée du lambic. L'entreprise est située à quelques hectomètres de la limite avec la région flamande.
 </t>
@@ -577,7 +593,9 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La gueuzerie produit trois variétés de gueuze non filtrées et non pasteurisées, commercialisées en bouteilles de 37,5 cl et de 75 cl :
 Gueuze Tilquin à l'ancienne titrant 7,0 % en volume d'alcool, assemblage de lambics d'1, 2 et 3 ans refermenté en bouteilles pour une durée de minimum 6 mois.
